--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_3_ABCDF/ABD/15/seed2/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_3_ABCDF/ABD/15/seed2/result_data_RandomForest.xlsx
@@ -465,7 +465,7 @@
         <v>-21.2</v>
       </c>
       <c r="B2" t="n">
-        <v>6.292599999999997</v>
+        <v>5.850999999999996</v>
       </c>
       <c r="C2" t="n">
         <v>-10.8</v>
@@ -479,7 +479,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-21.47270000000003</v>
+        <v>-21.36680000000002</v>
       </c>
       <c r="B3" t="n">
         <v>4.54</v>
@@ -516,13 +516,13 @@
         <v>-23.4</v>
       </c>
       <c r="B5" t="n">
-        <v>5.4138</v>
+        <v>5.154600000000004</v>
       </c>
       <c r="C5" t="n">
         <v>-15.14</v>
       </c>
       <c r="D5" t="n">
-        <v>-8.620100000000001</v>
+        <v>-8.705099999999998</v>
       </c>
       <c r="E5" t="n">
         <v>9.970000000000001</v>
@@ -590,7 +590,7 @@
         <v>-13.02</v>
       </c>
       <c r="D9" t="n">
-        <v>-8.477300000000001</v>
+        <v>-8.5336</v>
       </c>
       <c r="E9" t="n">
         <v>12.31</v>
@@ -624,7 +624,7 @@
         <v>-13.87</v>
       </c>
       <c r="D11" t="n">
-        <v>-8.3367</v>
+        <v>-8.293800000000003</v>
       </c>
       <c r="E11" t="n">
         <v>13.91</v>
@@ -666,7 +666,7 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>-20.44209999999998</v>
+        <v>-20.51159999999998</v>
       </c>
       <c r="B14" t="n">
         <v>8.33</v>
@@ -785,7 +785,7 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>-21.54370000000001</v>
+        <v>-21.37400000000001</v>
       </c>
       <c r="B21" t="n">
         <v>7.49</v>
@@ -794,7 +794,7 @@
         <v>-12.06</v>
       </c>
       <c r="D21" t="n">
-        <v>-8.017700000000005</v>
+        <v>-8.150500000000003</v>
       </c>
       <c r="E21" t="n">
         <v>13.76</v>
@@ -819,7 +819,7 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>-21.42480000000002</v>
+        <v>-21.33140000000002</v>
       </c>
       <c r="B23" t="n">
         <v>5.8</v>
@@ -853,7 +853,7 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>-22.53440000000003</v>
+        <v>-22.42640000000003</v>
       </c>
       <c r="B25" t="n">
         <v>5.09</v>
